--- a/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
+++ b/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-1/reference/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-2/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD28889-AA15-2A43-956F-ED4E9F568897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F134A6-E8C0-E449-B905-42DCBB76C78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -365,7 +365,22 @@
     <t>31-925</t>
   </si>
   <si>
-    <t>https://www.newark.com/eao/31-925/switch-guard/dp/50F8274?gclid=Cj0KCQjw3ZX4BRDmARIsAFYh7ZL4TmIx5-yMIRRJnkCFsqdzfS6YZAsvRjPKTaOv0U1XTDgEo3GKLyYaAg49EALw_wcB&amp;mckv=s6B25skjl_dc|pcrid|434136793434|plid||kword||match||slid||product|50F8274|pgrid|100464451146|ptaid|aud-905551039420:pla-904243529025|&amp;CMP=KNC-GUSA-GEN-Shopping-NewStructure-Switches-Relays</t>
+    <t>STPIC6D595MTR</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/STPIC6D595MTR/497-6329-1-ND/1762246</t>
+  </si>
+  <si>
+    <t>Digital hardware for push LEDs:  Shift Register 1 Element 8 Bit 16-SO</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t>https://www.newark.com/eao/31-925/switch-guard/dp/50F8274</t>
+  </si>
+  <si>
+    <t>50F8274</t>
   </si>
   <si>
     <r>
@@ -375,30 +390,19 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF757575"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t> EAO 31 Series Pushbutton Switches</t>
     </r>
-  </si>
-  <si>
-    <t>STPIC6D595MTR</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/STPIC6D595MTR/497-6329-1-ND/1762246</t>
-  </si>
-  <si>
-    <t>Digital hardware for push LEDs:  Shift Register 1 Element 8 Bit 16-SO</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,12 +455,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -469,29 +467,25 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF211E1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF444444"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -499,7 +493,21 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF211E1E"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,33 +516,16 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF757575"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -564,13 +555,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -581,25 +571,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -917,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09F318-339D-2C4D-BE3F-E973DAF25A4A}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1045,25 +1033,25 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1083,7 +1071,7 @@
       <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1114,7 +1102,7 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2">
@@ -1130,11 +1118,11 @@
         <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
@@ -1159,7 +1147,7 @@
         <v>50</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1172,13 +1160,13 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>200</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1192,13 +1180,13 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1212,13 +1200,13 @@
       <c r="C14" s="1">
         <v>16</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1226,43 +1214,43 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="24" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="7"/>
       <c r="C17" s="2"/>
       <c r="F17" s="4"/>
     </row>
@@ -1288,66 +1276,66 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>1</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="25" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="19" t="s">
         <v>104</v>
       </c>
       <c r="G22" s="26"/>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1364,73 +1352,75 @@
       <c r="E23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="D24" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="9"/>
+      <c r="F27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="H27" s="19" t="s">
+      <c r="H27" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>190160099</v>
       </c>
       <c r="C41" s="1">
@@ -1442,7 +1432,7 @@
       <c r="E41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>76</v>
       </c>
     </row>

--- a/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
+++ b/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-2/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F134A6-E8C0-E449-B905-42DCBB76C78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FD2F67-29B1-1743-84C4-B9CA46A74F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -68,9 +68,6 @@
     <t>https://www.digikey.com/product-detail/en/mallory-sonalert-products-inc/MSS5MMG/458-1405-ND/5418608</t>
   </si>
   <si>
-    <t>C1,2,3,4</t>
-  </si>
-  <si>
     <t>C0805C104Z5VACTU</t>
   </si>
   <si>
@@ -125,9 +122,6 @@
     <t>To back switch connector</t>
   </si>
   <si>
-    <t>D1,D2</t>
-  </si>
-  <si>
     <t>1N4001</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>https://www.digikey.com/product-detail/en/littelfuse-inc/SMF3-3/F7701TR-ND/6189040</t>
   </si>
   <si>
-    <t>Q1,2,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">DMN10H220L </t>
   </si>
   <si>
@@ -188,36 +179,6 @@
     <t>https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB</t>
   </si>
   <si>
-    <t>R1-R23</t>
-  </si>
-  <si>
-    <t>RC0805FR-07200RL</t>
-  </si>
-  <si>
-    <t>311-200CRTR-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-07200RL/311-200CRTR-ND/727723</t>
-  </si>
-  <si>
-    <t>RES SMD 200 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RC0805JR-071KL</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>311-1.0KARTR-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-071KL/311-1-0KARTR-ND/728218</t>
-  </si>
-  <si>
-    <t>RES SMD 1K OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
     <t>RC0805FR-0710KL</t>
   </si>
   <si>
@@ -305,9 +266,6 @@
     <t>Connector type: 2.54 mm pitch top contacts</t>
   </si>
   <si>
-    <t>Footprint, etc</t>
-  </si>
-  <si>
     <t>Conductor pitch / 1.0mm Conductor width /□0.2mm  (https://p.globalsources.com/IMAGES/PDT/SPEC/519/K1159377519.pdf)</t>
   </si>
   <si>
@@ -332,9 +290,6 @@
     <t>B3B-PH-SM4-TB(LF)(SN)</t>
   </si>
   <si>
-    <t>CONN4</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/B3B-PH-SM4-TB-LF-SN/455-1735-1-ND/926832</t>
   </si>
   <si>
@@ -356,12 +311,6 @@
     <t>CONN3 to Push back</t>
   </si>
   <si>
-    <t>CONN1 to LEDs</t>
-  </si>
-  <si>
-    <t>Solder lug terminals (3) --&gt; solder to wire --&gt; connect to PHR-3 then to CONN3</t>
-  </si>
-  <si>
     <t>31-925</t>
   </si>
   <si>
@@ -377,32 +326,65 @@
     <t>Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
-    <t>https://www.newark.com/eao/31-925/switch-guard/dp/50F8274</t>
-  </si>
-  <si>
     <t>50F8274</t>
   </si>
   <si>
-    <r>
-      <t>Switch Finger Guard,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF757575"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> EAO 31 Series Pushbutton Switches</t>
-    </r>
+    <t>640457-9</t>
+  </si>
+  <si>
+    <t>A19483-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640457-9/A19483-ND/259020</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole, Right Angle 9 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>Q1,2,3,4,8,9,10</t>
+  </si>
+  <si>
+    <t>D1,2</t>
+  </si>
+  <si>
+    <t>C1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>ERJ-6GEYJ820V</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-6GEYJ820V/P82ATR-ND/83010</t>
+  </si>
+  <si>
+    <t>R1-28</t>
+  </si>
+  <si>
+    <t>CONN2 to LEDs</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/products/en?keywords=1658623-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.newark.com/eao/31-925/switch-guard/dp/50F8274 </t>
+  </si>
+  <si>
+    <t>1658623-3</t>
+  </si>
+  <si>
+    <t>CONN1 to Control board</t>
+  </si>
+  <si>
+    <t>Switch Finger Guard, EAO 31 Series Pushbutton Switches</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,64 +425,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF211E1E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,7 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
@@ -521,11 +445,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="10"/>
-      <color rgb="FF757575"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF211E1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -555,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -564,30 +502,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -903,17 +835,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09F318-339D-2C4D-BE3F-E973DAF25A4A}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="42.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="1"/>
     <col min="8" max="8" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -934,16 +868,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -959,7 +890,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -968,490 +899,484 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>22</v>
+      <c r="E6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-      <c r="C10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
+      <c r="H10" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="A11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="11">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="14">
+        <v>82</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C12" s="11">
+        <f>10+6+8</f>
+        <v>24</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="G12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>200</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="11">
+        <v>1</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="2">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="7"/>
-      <c r="C17" s="2"/>
-      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="F18" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="A19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="11">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>69</v>
+      <c r="D19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="11" t="s">
-        <v>86</v>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="11">
+        <v>1</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="16">
+      <c r="A21" s="8"/>
+      <c r="B21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="25" t="s">
-        <v>89</v>
+      <c r="D21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="9">
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="9" t="s">
+      <c r="D22" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="8">
+        <v>91</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>78</v>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="9">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B41" s="5">
+      <c r="A27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="5">
         <v>190160099</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>76</v>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{7B5E6841-F24D-4947-8083-A02BA6A18D01}"/>
-    <hyperlink ref="F11" r:id="rId2" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{018F482C-2DD5-9342-BF3B-059DF1382044}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{EBFDAA92-0578-9C4B-8A60-D7469E23F226}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{D3C24B4F-FBA1-C448-80DD-E72670B38F5D}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{4488B7EE-2B99-0C48-BE32-6BE300A4CFB8}"/>
-    <hyperlink ref="F14" r:id="rId6" xr:uid="{8FB55559-59B6-1A4D-915E-15D7A3746398}"/>
-    <hyperlink ref="F23" r:id="rId7" xr:uid="{CE820B91-A3E0-FF4C-86ED-FA1B9A9674A2}"/>
-    <hyperlink ref="F41" r:id="rId8" xr:uid="{DF12FEDB-0DDC-2948-8CA6-24D3CDAE683B}"/>
-    <hyperlink ref="F7" r:id="rId9" xr:uid="{9A4A6100-37B9-E342-A678-7012B2962854}"/>
-    <hyperlink ref="F3" r:id="rId10" xr:uid="{3123A9C7-DDA3-1247-B2C0-2639E0E65E57}"/>
-    <hyperlink ref="F4" r:id="rId11" xr:uid="{F50A23A6-6271-0546-B595-42241E892622}"/>
-    <hyperlink ref="F5" r:id="rId12" xr:uid="{FA5DA2F8-8B34-A647-B413-30133DA5F6B0}"/>
-    <hyperlink ref="F8" r:id="rId13" xr:uid="{630F37CB-1E8B-C946-90D0-AF7758D45495}"/>
-    <hyperlink ref="F27" r:id="rId14" xr:uid="{951D4A0F-6B66-B347-BB83-79D1699FA1F0}"/>
+    <hyperlink ref="F9" r:id="rId2" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{018F482C-2DD5-9342-BF3B-059DF1382044}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{EBFDAA92-0578-9C4B-8A60-D7469E23F226}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{8FB55559-59B6-1A4D-915E-15D7A3746398}"/>
+    <hyperlink ref="F22" r:id="rId5" xr:uid="{CE820B91-A3E0-FF4C-86ED-FA1B9A9674A2}"/>
+    <hyperlink ref="F40" r:id="rId6" xr:uid="{DF12FEDB-0DDC-2948-8CA6-24D3CDAE683B}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{9A4A6100-37B9-E342-A678-7012B2962854}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{3123A9C7-DDA3-1247-B2C0-2639E0E65E57}"/>
+    <hyperlink ref="F5" r:id="rId9" xr:uid="{F50A23A6-6271-0546-B595-42241E892622}"/>
+    <hyperlink ref="F4" r:id="rId10" xr:uid="{FA5DA2F8-8B34-A647-B413-30133DA5F6B0}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{630F37CB-1E8B-C946-90D0-AF7758D45495}"/>
+    <hyperlink ref="F26" r:id="rId12" xr:uid="{951D4A0F-6B66-B347-BB83-79D1699FA1F0}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{5403C09A-FC9F-4246-86F3-1FB7F3CEC876}"/>
+    <hyperlink ref="F21" r:id="rId14" xr:uid="{BBD95B9F-5EB1-994B-8AFB-B21204AC69EC}"/>
+    <hyperlink ref="F20" r:id="rId15" xr:uid="{32DB8A2F-4C9A-A343-B2B5-340824C7BDA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
+++ b/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-2/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FD2F67-29B1-1743-84C4-B9CA46A74F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D0136E-C9A7-A243-AEB5-1D1BCCCF184A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Digikey order" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Distributor</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -131,9 +129,6 @@
     <t>1N4001FSCT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/on-semiconductor/1N4001/1N4001FSCT-ND/1532742</t>
-  </si>
-  <si>
     <t>0805 Si diodes </t>
   </si>
   <si>
@@ -233,9 +228,6 @@
     <t>To pi</t>
   </si>
   <si>
-    <t>SF25BA</t>
-  </si>
-  <si>
     <t>Knob, : waterproof IP65, rotary encoder with center push button, panel mounting, ring LED, marking available.</t>
   </si>
   <si>
@@ -260,18 +252,12 @@
     <t>Custom Membrane Switch Prototype</t>
   </si>
   <si>
-    <t>4 (or 1 unit)</t>
-  </si>
-  <si>
     <t>Connector type: 2.54 mm pitch top contacts</t>
   </si>
   <si>
     <t>Conductor pitch / 1.0mm Conductor width /□0.2mm  (https://p.globalsources.com/IMAGES/PDT/SPEC/519/K1159377519.pdf)</t>
   </si>
   <si>
-    <t>SW5</t>
-  </si>
-  <si>
     <t>Connector to Membrane switches</t>
   </si>
   <si>
@@ -311,9 +297,6 @@
     <t>CONN3 to Push back</t>
   </si>
   <si>
-    <t>31-925</t>
-  </si>
-  <si>
     <t>STPIC6D595MTR</t>
   </si>
   <si>
@@ -326,9 +309,6 @@
     <t>Package_TO_SOT_SMD:SOT-23</t>
   </si>
   <si>
-    <t>50F8274</t>
-  </si>
-  <si>
     <t>640457-9</t>
   </si>
   <si>
@@ -368,23 +348,182 @@
     <t xml:space="preserve">https://www.digikey.com/products/en?keywords=1658623-3 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.newark.com/eao/31-925/switch-guard/dp/50F8274 </t>
-  </si>
-  <si>
     <t>1658623-3</t>
   </si>
   <si>
     <t>CONN1 to Control board</t>
   </si>
   <si>
-    <t>Switch Finger Guard, EAO 31 Series Pushbutton Switches</t>
+    <t> SF25BA9553</t>
+  </si>
+  <si>
+    <t>SP-1504</t>
+  </si>
+  <si>
+    <t>8 Ohms General Purpose Speaker 800mW 300Hz ~ 8kHz Top Round 90dB</t>
+  </si>
+  <si>
+    <t>433-1106-ND</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Lead time (weeks)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/on-semiconductor/1N4001G/1N4001GOS-ND/1485468</t>
+  </si>
+  <si>
+    <t>SW5 (Option 1)</t>
+  </si>
+  <si>
+    <t>SW5 (Option 2)</t>
+  </si>
+  <si>
+    <t>Switch Finger Guard</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <t>Backup link</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/B3B-PH-SM4-TBT-LF-SN/455-2948-1-ND/2136261</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>B3B-PH-SM4-TBT(LF)(SN)</t>
+  </si>
+  <si>
+    <t>Can produce lots  (1000s) if given 8 week lead time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/product-detail/en/soberton-inc/SP-1504/433-1106-ND/3973690 </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/1658621-3/AKC16H-ND/825401</t>
+  </si>
+  <si>
+    <t>1658621-3</t>
+  </si>
+  <si>
+    <t>1 panel</t>
+  </si>
+  <si>
+    <t>https://www.galco.com/techdoc/idec/ha1b-a2c5-r_cp.pdf</t>
+  </si>
+  <si>
+    <t>Order direct from maufacturer</t>
+  </si>
+  <si>
+    <t>300pcs / month after 8/17</t>
+  </si>
+  <si>
+    <t>HA1B-A2C5-R</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>497-6329-1-ND</t>
+  </si>
+  <si>
+    <t>CONN4</t>
+  </si>
+  <si>
+    <t>CONN5</t>
+  </si>
+  <si>
+    <t>CONN6</t>
+  </si>
+  <si>
+    <t>Bharat Forge will make</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Lead time 3 days</t>
+  </si>
+  <si>
+    <t>Audio Jack Connector</t>
+  </si>
+  <si>
+    <t>2 wires as terminal</t>
+  </si>
+  <si>
+    <t>From speaker wires to audio jack of pi</t>
+  </si>
+  <si>
+    <t>Finding…</t>
+  </si>
+  <si>
+    <t>Need 255mm = 10 in per unit</t>
+  </si>
+  <si>
+    <t>COM-12021</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/sparkfun-electronics/COM-12021/1568-1153-ND/5673739?utm_adgroup=LED%20Lighting%20-%20COBs%2C%20Engines%2C%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Product_Optoelectronics_NEW&amp;utm_term=&amp;utm_content=LED%20Lighting%20-%20COBs%2C%20Engines%2C%20Modules&amp;gclid=EAIaIQobChMItc2G35_h6gIVEJSzCh22-gG9EAQYASABEgL0EfD_BwE</t>
+  </si>
+  <si>
+    <t>96 in stock, 2 week lead time?</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/CERRXIAN-Terminal-Headphone-Converter-Adapter/dp/B06Y5YJRPD?ref_=ast_sto_dp</t>
+  </si>
+  <si>
+    <t>263 in stock, 8-10 weeks  972-543-0581</t>
+  </si>
+  <si>
+    <t>https://www.1000bulbs.com/product/177166/FLX-00043.html?cc=100&amp;gclid=EAIaIQobChMIiuy9oLrj6gIVF4rICh2klgAHEAQYDyABEgJycfD_BwE#detail-tabs</t>
+  </si>
+  <si>
+    <t>12 in. RGB Color Changing - LED Tape Light - 12 Volt</t>
+  </si>
+  <si>
+    <t>12V-SB-RGB-5M</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/inspired-led-llc/12V-SB-RGB-5M/1647-1069-2-ND/9091794</t>
+  </si>
+  <si>
+    <t>960 in stock, 6 weeks</t>
+  </si>
+  <si>
+    <t>1500 in stoc, 6 weeks</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/inspired-led-llc/12V-SB-RGB-5M/1647-1069-1-ND/9091795</t>
+  </si>
+  <si>
+    <t>LED options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/product-detail/en/inspired-led-llc/12V-SB-RGB-5M/1647-1069-2-ND/9091794 </t>
+  </si>
+  <si>
+    <t>Need 255mm =&gt; 20 per 5m</t>
+  </si>
+  <si>
+    <t>DIGIKEY</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>Looks available. Terrie has talked</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,14 +557,6 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -465,13 +596,166 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF990000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -493,7 +777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -503,23 +787,60 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -835,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09F318-339D-2C4D-BE3F-E973DAF25A4A}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -854,7 +1175,7 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,496 +1189,786 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="27">
+        <v>560</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="16">
+        <v>452000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="16">
+        <v>2500</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="16">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="17">
+        <v>684</v>
+      </c>
+      <c r="J6" s="1">
+        <v>16</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="I7" s="16">
+        <v>17500</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="16">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I9" s="16">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="11">
+        <v>90</v>
+      </c>
+      <c r="I10" s="16">
+        <v>283000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="9">
         <f>4</f>
         <v>4</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>82</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>105</v>
+      <c r="E11" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11">
+        <v>99</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="9">
         <f>10+6+8</f>
         <v>24</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="16">
+        <v>20390000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="16">
+        <v>4000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="16">
+        <v>4500</v>
+      </c>
+      <c r="J14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="B16" s="18"/>
+      <c r="D16" s="30" t="s">
+        <v>152</v>
+      </c>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>55</v>
+      <c r="O16" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="26" t="s">
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="13" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="33" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="G19" s="32"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="17">
+        <v>60</v>
+      </c>
+      <c r="J19" s="1">
+        <v>8</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="19" t="s">
-        <v>112</v>
+      <c r="B20" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>112</v>
+        <v>105</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="I21" s="19">
+        <v>758</v>
+      </c>
+      <c r="J21" s="1">
+        <v>15</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" s="16">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="I23" s="16">
+        <v>7500</v>
+      </c>
+      <c r="J23" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C24" s="9">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="17">
+        <v>100</v>
+      </c>
+      <c r="J26" s="1">
+        <v>8</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="5">
+      <c r="B27" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I27" s="16">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I28" s="27"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="5">
         <v>190160099</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1367,16 +1978,1188 @@
     <hyperlink ref="F10" r:id="rId3" xr:uid="{EBFDAA92-0578-9C4B-8A60-D7469E23F226}"/>
     <hyperlink ref="F12" r:id="rId4" xr:uid="{8FB55559-59B6-1A4D-915E-15D7A3746398}"/>
     <hyperlink ref="F22" r:id="rId5" xr:uid="{CE820B91-A3E0-FF4C-86ED-FA1B9A9674A2}"/>
-    <hyperlink ref="F40" r:id="rId6" xr:uid="{DF12FEDB-0DDC-2948-8CA6-24D3CDAE683B}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{9A4A6100-37B9-E342-A678-7012B2962854}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{3123A9C7-DDA3-1247-B2C0-2639E0E65E57}"/>
-    <hyperlink ref="F5" r:id="rId9" xr:uid="{F50A23A6-6271-0546-B595-42241E892622}"/>
-    <hyperlink ref="F4" r:id="rId10" xr:uid="{FA5DA2F8-8B34-A647-B413-30133DA5F6B0}"/>
-    <hyperlink ref="F8" r:id="rId11" xr:uid="{630F37CB-1E8B-C946-90D0-AF7758D45495}"/>
-    <hyperlink ref="F26" r:id="rId12" xr:uid="{951D4A0F-6B66-B347-BB83-79D1699FA1F0}"/>
-    <hyperlink ref="F18" r:id="rId13" xr:uid="{5403C09A-FC9F-4246-86F3-1FB7F3CEC876}"/>
-    <hyperlink ref="F21" r:id="rId14" xr:uid="{BBD95B9F-5EB1-994B-8AFB-B21204AC69EC}"/>
-    <hyperlink ref="F20" r:id="rId15" xr:uid="{32DB8A2F-4C9A-A343-B2B5-340824C7BDA1}"/>
+    <hyperlink ref="F41" r:id="rId6" xr:uid="{DF12FEDB-0DDC-2948-8CA6-24D3CDAE683B}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{3123A9C7-DDA3-1247-B2C0-2639E0E65E57}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{F50A23A6-6271-0546-B595-42241E892622}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{FA5DA2F8-8B34-A647-B413-30133DA5F6B0}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{630F37CB-1E8B-C946-90D0-AF7758D45495}"/>
+    <hyperlink ref="F26" r:id="rId11" xr:uid="{951D4A0F-6B66-B347-BB83-79D1699FA1F0}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{5403C09A-FC9F-4246-86F3-1FB7F3CEC876}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{BBD95B9F-5EB1-994B-8AFB-B21204AC69EC}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{ABF3B3FB-D57E-DF4C-A3BB-1F1EE7F004E6}"/>
+    <hyperlink ref="F11" r:id="rId15" xr:uid="{42296486-DCA2-8147-BAAA-50841A3237D4}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{3ECE82A6-165C-C746-9108-F3C5C47C845B}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{E7AAA494-615C-634D-B386-4AE6FBEEE153}"/>
+    <hyperlink ref="F23" r:id="rId18" xr:uid="{D037F001-3F77-824D-8684-B324825BB7B8}"/>
+    <hyperlink ref="F27" r:id="rId19" xr:uid="{12B930BB-688C-8646-9406-D989687BBC42}"/>
+    <hyperlink ref="G20" r:id="rId20" xr:uid="{0B23E427-31CE-5244-A415-19CBF752FC9D}"/>
+    <hyperlink ref="F19" r:id="rId21" xr:uid="{0376E0AC-73E1-B441-9DE3-A2BA1839C66A}"/>
+    <hyperlink ref="F32" r:id="rId22" xr:uid="{B3713357-F350-1B47-88EA-259846C28AEC}"/>
+    <hyperlink ref="F17" r:id="rId23" xr:uid="{B166558D-0EEC-DB45-892C-783F7EE842FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E531EC0F-8B5B-B945-81ED-74853B083270}">
+  <dimension ref="A1:R41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="A1:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I1" s="9"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="44">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="7">
+        <v>560</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30">
+        <v>5</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="7">
+        <v>452000</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="7">
+        <v>2500</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="7">
+        <v>49000</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="30">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="7">
+        <v>684</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="30">
+        <v>2</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="30"/>
+      <c r="I9" s="7">
+        <v>17500</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="30">
+        <v>5</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="7">
+        <v>42000</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="30">
+        <v>7</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="7">
+        <v>75000</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="30">
+        <v>3</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="7">
+        <v>283000</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="30">
+        <v>4</v>
+      </c>
+      <c r="D13" s="37">
+        <v>82</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="7">
+        <v>100000</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="30">
+        <v>24</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="7">
+        <v>20390000</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4000</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="7">
+        <v>4500</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="40">
+        <v>1</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I17" s="52">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q17" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="R17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="R18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="7">
+        <v>60</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q19" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="R19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="30">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="23">
+        <v>758</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="7">
+        <v>35000</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="7">
+        <v>7500</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="44">
+        <v>1</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" s="7">
+        <v>15000</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="48">
+        <v>1</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="30"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="30"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="30"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="30"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="30"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="30"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{8D1A619E-9515-524F-B85A-A336184FAF79}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{3AAC0776-E199-2D4D-A06E-B69343AE631B}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{E461B325-C0F0-DA45-BDA8-84250934722A}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{A60C7027-4B10-1E42-84BA-150AC300C862}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{A1B92DA8-9C86-894C-993F-E8279B7DC277}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{2515C9A8-0A71-A542-9DE7-C8FE503FC70A}"/>
+    <hyperlink ref="F11" r:id="rId7" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{E2ADDD7B-C275-A94E-8AEE-3CE4B10DEC4C}"/>
+    <hyperlink ref="F12" r:id="rId8" xr:uid="{27125482-B106-0147-B5B6-DE477125A0DC}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{4CA4B337-CA91-E94E-B1F9-390ABAD5A837}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{C48CA423-8ACC-8844-A5D3-14CB3B73FE20}"/>
+    <hyperlink ref="F15" r:id="rId11" xr:uid="{09C32FBB-C794-C744-A726-DDD0502B59F8}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{C74B4AAC-4139-E74C-AA5B-14D06E76C48A}"/>
+    <hyperlink ref="F17" r:id="rId13" display="https://www.digikey.com/product-detail/en/inspired-led-llc/12V-SB-RGB-5M/1647-1069-2-ND/9091794" xr:uid="{BE2E3CAA-1537-B94B-BB1B-68FD97458555}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{FD5CF46B-0193-D147-9826-48512F9DED48}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{B100B64A-F971-F14A-ADEA-BBCFCD09A1AA}"/>
+    <hyperlink ref="F20" r:id="rId16" display="https://www.digikey.com/products/en?keywords=1658623-3" xr:uid="{1726C16B-1136-D04D-BE50-29799826E622}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{646AFD14-92B1-D340-840C-800535B95EDE}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{6AB34C14-18FE-564D-AEBF-20FEAB9DBCA9}"/>
+    <hyperlink ref="F23" r:id="rId19" display="https://www.digikey.com/product-detail/en/soberton-inc/SP-1504/433-1106-ND/3973690" xr:uid="{53C14038-FF08-BA49-8774-52E06C0F3358}"/>
+    <hyperlink ref="F26" r:id="rId20" xr:uid="{D34A9D3D-0E41-7C45-9FAE-64E42873741D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
+++ b/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-2/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D0136E-C9A7-A243-AEB5-1D1BCCCF184A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642413C-3950-9A43-A8AD-0BEE49647803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -517,6 +517,9 @@
   </si>
   <si>
     <t>Looks available. Terrie has talked</t>
+  </si>
+  <si>
+    <t>108-PLP16-C1RD3-SE6-ND</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1162,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1673,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>76</v>

--- a/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
+++ b/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-2/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642413C-3950-9A43-A8AD-0BEE49647803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4541025B-7C6A-A341-8EDF-52498AEF659D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="166">
   <si>
     <t>ID</t>
   </si>
@@ -520,6 +520,18 @@
   </si>
   <si>
     <t>108-PLP16-C1RD3-SE6-ND</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>RC0805JR-071KL</t>
+  </si>
+  <si>
+    <t>311-1.0KARTR-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-071KL/311-1-0KARTR-ND/728218</t>
   </si>
 </sst>
 </file>
@@ -1161,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09F318-339D-2C4D-BE3F-E973DAF25A4A}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1487,60 +1499,49 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="9">
-        <f>10+6+8</f>
-        <v>24</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="16">
-        <v>20390000</v>
-      </c>
+      <c r="B12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>74</v>
+        <f>10+6+8</f>
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="16">
-        <v>4000</v>
-      </c>
-      <c r="J13" s="1">
-        <v>15</v>
+        <v>20390000</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -1548,26 +1549,55 @@
         <v>82</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="16">
+        <v>4000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E15" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="16">
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="16">
         <v>4500</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J15" s="1">
         <v>20</v>
       </c>
     </row>
@@ -1575,11 +1605,6 @@
       <c r="A16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="D16" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="4"/>
       <c r="O16" s="18" t="s">
         <v>143</v>
       </c>
@@ -1590,31 +1615,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="28">
-        <v>2</v>
-      </c>
+      <c r="B17" s="18"/>
+      <c r="D17" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="4"/>
       <c r="O17" s="29" t="s">
         <v>149</v>
       </c>
@@ -1625,31 +1634,30 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>125</v>
+      <c r="B18" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="1" t="s">
-        <v>137</v>
+      <c r="F18" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2</v>
       </c>
       <c r="O18" s="18" t="s">
         <v>150</v>
@@ -1661,30 +1669,31 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="17">
-        <v>60</v>
-      </c>
-      <c r="J19" s="1">
-        <v>8</v>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="O19" s="18" t="s">
         <v>150</v>
@@ -1696,53 +1705,53 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>126</v>
-      </c>
+      <c r="B20" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="34"/>
       <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>128</v>
+        <v>60</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>104</v>
+      <c r="B21" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>130</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="19">
-        <v>758</v>
-      </c>
-      <c r="J21" s="1">
-        <v>15</v>
+        <v>127</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0</v>
+      </c>
+      <c r="J21" s="25" t="s">
+        <v>128</v>
       </c>
       <c r="K21" s="18" t="s">
         <v>124</v>
@@ -1755,24 +1764,26 @@
       <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>56</v>
+      <c r="B22" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="I22" s="16">
-        <v>35000</v>
+        <v>103</v>
+      </c>
+      <c r="I22" s="19">
+        <v>758</v>
+      </c>
+      <c r="J22" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -1780,73 +1791,68 @@
         <v>134</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="I23" s="16">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="I23" s="16">
+      <c r="G24" s="8"/>
+      <c r="I24" s="16">
         <v>7500</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J24" s="1">
         <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>63</v>
       </c>
+      <c r="C25" s="9">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="4" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="17">
-        <v>100</v>
-      </c>
-      <c r="J26" s="1">
-        <v>8</v>
-      </c>
       <c r="K26" s="1" t="s">
         <v>121</v>
       </c>
@@ -1855,31 +1861,57 @@
       <c r="A27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27" s="17">
+        <v>100</v>
+      </c>
+      <c r="J27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C28" s="9">
         <v>1</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D28" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E28" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I28" s="16">
         <v>15000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I28" s="27"/>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
@@ -1979,26 +2011,27 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{7B5E6841-F24D-4947-8083-A02BA6A18D01}"/>
     <hyperlink ref="F9" r:id="rId2" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{018F482C-2DD5-9342-BF3B-059DF1382044}"/>
     <hyperlink ref="F10" r:id="rId3" xr:uid="{EBFDAA92-0578-9C4B-8A60-D7469E23F226}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{8FB55559-59B6-1A4D-915E-15D7A3746398}"/>
-    <hyperlink ref="F22" r:id="rId5" xr:uid="{CE820B91-A3E0-FF4C-86ED-FA1B9A9674A2}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{8FB55559-59B6-1A4D-915E-15D7A3746398}"/>
+    <hyperlink ref="F23" r:id="rId5" xr:uid="{CE820B91-A3E0-FF4C-86ED-FA1B9A9674A2}"/>
     <hyperlink ref="F41" r:id="rId6" xr:uid="{DF12FEDB-0DDC-2948-8CA6-24D3CDAE683B}"/>
     <hyperlink ref="F3" r:id="rId7" xr:uid="{3123A9C7-DDA3-1247-B2C0-2639E0E65E57}"/>
     <hyperlink ref="F5" r:id="rId8" xr:uid="{F50A23A6-6271-0546-B595-42241E892622}"/>
     <hyperlink ref="F4" r:id="rId9" xr:uid="{FA5DA2F8-8B34-A647-B413-30133DA5F6B0}"/>
     <hyperlink ref="F8" r:id="rId10" xr:uid="{630F37CB-1E8B-C946-90D0-AF7758D45495}"/>
-    <hyperlink ref="F26" r:id="rId11" xr:uid="{951D4A0F-6B66-B347-BB83-79D1699FA1F0}"/>
-    <hyperlink ref="F18" r:id="rId12" xr:uid="{5403C09A-FC9F-4246-86F3-1FB7F3CEC876}"/>
-    <hyperlink ref="F21" r:id="rId13" xr:uid="{BBD95B9F-5EB1-994B-8AFB-B21204AC69EC}"/>
+    <hyperlink ref="F27" r:id="rId11" xr:uid="{951D4A0F-6B66-B347-BB83-79D1699FA1F0}"/>
+    <hyperlink ref="F19" r:id="rId12" xr:uid="{5403C09A-FC9F-4246-86F3-1FB7F3CEC876}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{BBD95B9F-5EB1-994B-8AFB-B21204AC69EC}"/>
     <hyperlink ref="F6" r:id="rId14" xr:uid="{ABF3B3FB-D57E-DF4C-A3BB-1F1EE7F004E6}"/>
     <hyperlink ref="F11" r:id="rId15" xr:uid="{42296486-DCA2-8147-BAAA-50841A3237D4}"/>
-    <hyperlink ref="F13" r:id="rId16" xr:uid="{3ECE82A6-165C-C746-9108-F3C5C47C845B}"/>
-    <hyperlink ref="F14" r:id="rId17" xr:uid="{E7AAA494-615C-634D-B386-4AE6FBEEE153}"/>
-    <hyperlink ref="F23" r:id="rId18" xr:uid="{D037F001-3F77-824D-8684-B324825BB7B8}"/>
-    <hyperlink ref="F27" r:id="rId19" xr:uid="{12B930BB-688C-8646-9406-D989687BBC42}"/>
-    <hyperlink ref="G20" r:id="rId20" xr:uid="{0B23E427-31CE-5244-A415-19CBF752FC9D}"/>
-    <hyperlink ref="F19" r:id="rId21" xr:uid="{0376E0AC-73E1-B441-9DE3-A2BA1839C66A}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{3ECE82A6-165C-C746-9108-F3C5C47C845B}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{E7AAA494-615C-634D-B386-4AE6FBEEE153}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{D037F001-3F77-824D-8684-B324825BB7B8}"/>
+    <hyperlink ref="F28" r:id="rId19" xr:uid="{12B930BB-688C-8646-9406-D989687BBC42}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{0B23E427-31CE-5244-A415-19CBF752FC9D}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{0376E0AC-73E1-B441-9DE3-A2BA1839C66A}"/>
     <hyperlink ref="F32" r:id="rId22" xr:uid="{B3713357-F350-1B47-88EA-259846C28AEC}"/>
-    <hyperlink ref="F17" r:id="rId23" xr:uid="{B166558D-0EEC-DB45-892C-783F7EE842FA}"/>
+    <hyperlink ref="F18" r:id="rId23" xr:uid="{B166558D-0EEC-DB45-892C-783F7EE842FA}"/>
+    <hyperlink ref="F12" r:id="rId24" xr:uid="{EF6D6457-CC43-8041-AF01-7801FE618C7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
+++ b/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-2/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4541025B-7C6A-A341-8EDF-52498AEF659D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D468B-4C85-9A4D-8EBC-B8F679FE1C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
   <si>
     <t>ID</t>
   </si>
@@ -522,23 +522,20 @@
     <t>108-PLP16-C1RD3-SE6-ND</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>RC0805JR-071KL</t>
-  </si>
-  <si>
-    <t>311-1.0KARTR-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/RC0805JR-071KL/311-1-0KARTR-ND/728218</t>
+    <t>https://www.digikey.com/product-detail/en/yageo/RC0805FR-071RL/311-1-00CRCT-ND/730390</t>
+  </si>
+  <si>
+    <t>RC0805FR-071RL</t>
+  </si>
+  <si>
+    <t>311-1.00CRCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -740,6 +737,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -792,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -856,6 +865,13 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1173,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09F318-339D-2C4D-BE3F-E973DAF25A4A}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1383,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
@@ -1383,7 +1399,7 @@
       <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="53" t="s">
         <v>112</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1396,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1412,7 +1428,7 @@
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="56" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="16">
@@ -1497,24 +1513,24 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:18" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B12" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="55">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="57">
+        <v>1</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="11"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -1731,10 +1747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>132</v>
-      </c>
+    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="25" t="s">
         <v>129</v>
       </c>
@@ -1744,7 +1757,7 @@
       <c r="F21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="53" t="s">
         <v>126</v>
       </c>
       <c r="I21" s="17">
@@ -1761,8 +1774,8 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>133</v>
+      <c r="A22" s="26" t="s">
+        <v>132</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>104</v>
@@ -1788,7 +1801,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>56</v>
@@ -1811,6 +1824,9 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>83</v>
       </c>
@@ -1835,9 +1851,6 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>63</v>
-      </c>
       <c r="C25" s="9">
         <v>1</v>
       </c>
@@ -1850,16 +1863,16 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>68</v>
+      <c r="A26" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>67</v>
+      <c r="A27" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>106</v>
@@ -1887,6 +1900,9 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="B28" s="18" t="s">
         <v>107</v>
       </c>
@@ -2031,7 +2047,8 @@
     <hyperlink ref="F20" r:id="rId21" xr:uid="{0376E0AC-73E1-B441-9DE3-A2BA1839C66A}"/>
     <hyperlink ref="F32" r:id="rId22" xr:uid="{B3713357-F350-1B47-88EA-259846C28AEC}"/>
     <hyperlink ref="F18" r:id="rId23" xr:uid="{B166558D-0EEC-DB45-892C-783F7EE842FA}"/>
-    <hyperlink ref="F12" r:id="rId24" xr:uid="{EF6D6457-CC43-8041-AF01-7801FE618C7B}"/>
+    <hyperlink ref="F12" r:id="rId24" xr:uid="{0B85D746-5546-E541-84B9-9793C43877D8}"/>
+    <hyperlink ref="F7" r:id="rId25" xr:uid="{C421FEF6-4573-DF4F-9704-042BBC804F34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
+++ b/designs/Pufferfish-Interface-2/reference/Interface Bill of Materials v2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenadachi/Documents/GitHub/pufferfish-electronics/designs/Pufferfish-Interface-2/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D468B-4C85-9A4D-8EBC-B8F679FE1C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1079C9A-B939-3241-8F08-731C2D99E372}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
+    <workbookView xWindow="1820" yWindow="460" windowWidth="25040" windowHeight="14040" xr2:uid="{AB4FADCF-5D3E-0F4F-A6DE-656B770204FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Digikey order" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Digikey order" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -529,13 +530,61 @@
   </si>
   <si>
     <t>311-1.00CRCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-amp-connectors/640453-9/A19343-ND/258931</t>
+  </si>
+  <si>
+    <t>640453-9</t>
+  </si>
+  <si>
+    <t>A19343-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/SPH-004T-P0-5S/455-1318-1-ND/608807</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SPH-004T-P0.5S</t>
+  </si>
+  <si>
+    <t>455-1318-1-ND</t>
+  </si>
+  <si>
+    <t>JST crimp socket for LED CONN</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/jst-sales-america-inc/ASPHSPH24K305/455-3083-ND/6009459</t>
+  </si>
+  <si>
+    <t>ASPHSPH24K305</t>
+  </si>
+  <si>
+    <t>455-3083-ND</t>
+  </si>
+  <si>
+    <t>JST wires with sockets</t>
+  </si>
+  <si>
+    <t>CONN7</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/on-semiconductor/FDN337N/FDN337NCT-ND/458950?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=EAIaIQobChMIi9eQ5_aJ6wIViZWzCh0mJgM4EAAYAyAAEgLjm_D_BwE</t>
+  </si>
+  <si>
+    <t>FDN337NCT-ND</t>
+  </si>
+  <si>
+    <t>FDN337N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -749,6 +798,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF990000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -801,7 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -872,6 +939,11 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1186,11 +1258,828 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9B5640-6FAA-8446-9BE8-A4CA60B8E992}">
+  <dimension ref="A1:O41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="114" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="42.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27">
+        <v>560</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="16">
+        <v>452000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2500</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="17">
+        <v>684</v>
+      </c>
+      <c r="J6" s="1">
+        <v>16</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="16">
+        <v>17500</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="16">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="16">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="9">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="11">
+        <v>82</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="55">
+        <v>19</v>
+      </c>
+      <c r="D12" s="57">
+        <v>1</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="9">
+        <f>10+6+8</f>
+        <v>24</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16">
+        <v>20390000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="26">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14" s="59">
+        <v>4000</v>
+      </c>
+      <c r="J14" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="16">
+        <v>4500</v>
+      </c>
+      <c r="J15" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="D17" s="30"/>
+      <c r="F17" s="4"/>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="I20" s="16">
+        <v>35000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="O21" s="18"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="17">
+        <v>60</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="16">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I27" s="19">
+        <v>758</v>
+      </c>
+      <c r="J27" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="17">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="16">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="4"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="22"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="62"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="22"/>
+      <c r="C35" s="6"/>
+      <c r="E35" s="30"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="22"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="5">
+        <v>190160099</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{0BF0A536-DC77-0444-9302-DC11288070AA}"/>
+    <hyperlink ref="F9" r:id="rId2" display="https://www.digikey.com/product-detail/en/vishay-siliconix/2N7002E-T1-E3/2N7002E-T1-E3CT-ND/3946142?utm_adgroup=Semiconductor%20Modules&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Dynamic%20Search_RLSA_Buyers&amp;utm_term=&amp;utm_content=Semiconductor%20Modules&amp;gclid=Cj0KCQjwrIf3BRD1ARIsAMuugNtAYg0B4uzN6uG3FDVYlywiEKFAGbXRLO8hnfXG_d9twvCOg1_5j4waAs4CEALw_wcB" xr:uid="{75DF2C58-4D3B-B644-BD61-99A72EC8FC97}"/>
+    <hyperlink ref="F13" r:id="rId3" xr:uid="{0CAA95D5-AF0A-C644-8206-E3DCBFE22CB2}"/>
+    <hyperlink ref="F20" r:id="rId4" xr:uid="{FC4D975F-039A-FC45-92FF-71898E8AE2D0}"/>
+    <hyperlink ref="F41" r:id="rId5" xr:uid="{1E1F0747-F8FE-A247-85EA-EA283D9E6F59}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{1A87EBAA-610F-A047-89BC-84C08430B0B6}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{1B5EDAA5-54B7-654A-BC78-97BF9CE9F642}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{617C3CE0-8DD2-0D42-8A30-FFD4B2E1AF6C}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{72D11921-45B4-1840-B43E-FDEE14BA487C}"/>
+    <hyperlink ref="F30" r:id="rId10" xr:uid="{74B93430-441E-8349-BC5E-F7F0E84239A0}"/>
+    <hyperlink ref="F21" r:id="rId11" xr:uid="{DB431B3E-7618-E84C-8661-C4CF52566EEC}"/>
+    <hyperlink ref="F27" r:id="rId12" xr:uid="{4CA4955D-8C68-2247-928E-4655AAE4F913}"/>
+    <hyperlink ref="F6" r:id="rId13" xr:uid="{27F1A483-2FC8-2744-976E-9F98D3D1FE3B}"/>
+    <hyperlink ref="F11" r:id="rId14" xr:uid="{00C5F4A3-BB36-CA45-8FCA-E679C6A4E825}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{17F7EA1C-4B0E-0F43-9A52-B128A825BF4F}"/>
+    <hyperlink ref="F25" r:id="rId16" xr:uid="{28393060-57B6-0C44-94F7-534E6ADF54A4}"/>
+    <hyperlink ref="F31" r:id="rId17" xr:uid="{234397FD-824F-A940-ABD9-42FA04BDB109}"/>
+    <hyperlink ref="G23" r:id="rId18" xr:uid="{7A79AEFF-2497-534A-88EA-7D8D16465B79}"/>
+    <hyperlink ref="F22" r:id="rId19" xr:uid="{0B3EA41B-86C8-B240-B8AC-A8A1B8A7B5B1}"/>
+    <hyperlink ref="F18" r:id="rId20" xr:uid="{0C3D1137-1248-B845-9ED2-941F58F0455E}"/>
+    <hyperlink ref="F12" r:id="rId21" xr:uid="{1BF8D372-ED01-D94C-96D3-ECBDEC407FB4}"/>
+    <hyperlink ref="F7" r:id="rId22" xr:uid="{AED4303B-A784-1642-8EBA-B86A810C1661}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB09F318-339D-2C4D-BE3F-E973DAF25A4A}">
   <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="114" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1969,11 +2858,11 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="53" t="s">
         <v>148</v>
       </c>
       <c r="D34" s="30" t="s">
@@ -1981,11 +2870,11 @@
       </c>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="53" t="s">
         <v>151</v>
       </c>
       <c r="D35" s="30" t="s">
@@ -2049,12 +2938,14 @@
     <hyperlink ref="F18" r:id="rId23" xr:uid="{B166558D-0EEC-DB45-892C-783F7EE842FA}"/>
     <hyperlink ref="F12" r:id="rId24" xr:uid="{0B85D746-5546-E541-84B9-9793C43877D8}"/>
     <hyperlink ref="F7" r:id="rId25" xr:uid="{C421FEF6-4573-DF4F-9704-042BBC804F34}"/>
+    <hyperlink ref="C34" r:id="rId26" location="detail-tabs" xr:uid="{F1535850-54C7-D84C-852C-2E15F1CCAC9F}"/>
+    <hyperlink ref="C35" r:id="rId27" xr:uid="{7F22FBC9-DF11-8A4D-AC07-E8BC420B270E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E531EC0F-8B5B-B945-81ED-74853B083270}">
   <dimension ref="A1:R41"/>
   <sheetViews>
